--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/topvigoss/PycharmProjects/recipe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\recipeAnalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC709DCA-0868-4A9B-BF08-FA76BBDCDFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="4905" yWindow="2520" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,234 +28,421 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
-  <si>
-    <t>烧卖</t>
-    <rPh sb="0" eb="1">
-      <t>shao mai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶叶蛋</t>
-    <rPh sb="0" eb="1">
-      <t>cha ye dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白粥</t>
-    <rPh sb="0" eb="1">
-      <t>bai zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米棒</t>
-    <rPh sb="0" eb="1">
-      <t>yu mi bang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红豆卷</t>
-    <rPh sb="0" eb="1">
-      <t>hong dou juan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白鸡蛋</t>
-    <rPh sb="0" eb="1">
-      <t>bai ji dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米粥</t>
-    <rPh sb="0" eb="1">
-      <t>xiao mi zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娃娃菜</t>
-    <rPh sb="0" eb="1">
-      <t>wa wa cai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素鸡面</t>
-    <rPh sb="0" eb="1">
-      <t>su ji mian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="136">
+  <si>
+    <t>红烧萝卜肉圆</t>
+  </si>
+  <si>
+    <t>可乐鸡翅</t>
+  </si>
+  <si>
+    <t>洋葱炒鸡蛋</t>
+  </si>
+  <si>
+    <t>干煸四季豆</t>
+  </si>
+  <si>
+    <t>三丝银芽</t>
+  </si>
+  <si>
+    <t>糖醋包菜</t>
+  </si>
+  <si>
+    <t>丝瓜蛋汤</t>
+  </si>
+  <si>
+    <t>血米饭</t>
   </si>
   <si>
     <t>土豆烧牛腩</t>
-    <rPh sb="0" eb="1">
-      <t>tu dou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shao niu nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆皮豆腐烧猪血</t>
+  </si>
+  <si>
+    <t>美极花菜</t>
   </si>
   <si>
     <t>熏鱼</t>
-    <rPh sb="0" eb="1">
-      <t>xun yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脆豆腐烧猪血</t>
-    <rPh sb="0" eb="1">
-      <t>cui dou fu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhu nao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鱼香肉丝</t>
-    <rPh sb="0" eb="1">
-      <t>yu xiang rou si</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美极花菜</t>
-    <rPh sb="0" eb="1">
-      <t>mei ji</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hua cai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜泥花菜</t>
+  </si>
+  <si>
+    <t>萝卜排骨汤</t>
+  </si>
+  <si>
+    <t>麦仁饭</t>
+  </si>
+  <si>
+    <t>盐水鸭</t>
+  </si>
+  <si>
+    <t>西芹炒鸡柳</t>
+  </si>
+  <si>
+    <t>红椒木耳炒瓠子</t>
+  </si>
+  <si>
+    <t>六合头道菜</t>
+  </si>
+  <si>
+    <t>家常小炒</t>
+  </si>
+  <si>
+    <t>香芹腐竹花生米</t>
+  </si>
+  <si>
+    <t>冬瓜海带汤</t>
+  </si>
+  <si>
+    <t>黑芝麻饭</t>
+  </si>
+  <si>
+    <t>葱油江白鱼</t>
+  </si>
+  <si>
+    <t>干锅土豆片</t>
+  </si>
+  <si>
+    <t>香菇菜秧</t>
+  </si>
+  <si>
+    <t>萝卜烧肉</t>
+  </si>
+  <si>
+    <t>腌菜千张炒肉丝</t>
+  </si>
+  <si>
+    <t>豆芽炒粉丝</t>
+  </si>
+  <si>
+    <t>平菇豆腐汤</t>
+  </si>
+  <si>
+    <t>小米饭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香菇滑鸡 </t>
+  </si>
+  <si>
+    <t>黄瓜木耳炒鸡蛋</t>
+  </si>
+  <si>
+    <t>蒜泥空心菜</t>
+  </si>
+  <si>
+    <t>蒜仔鳕鱼</t>
+  </si>
+  <si>
+    <t>雪菜肉末豆腐</t>
+  </si>
+  <si>
+    <t>酸辣海带丝</t>
+  </si>
+  <si>
+    <t>西红柿蛋汤</t>
+  </si>
+  <si>
+    <t>玉米渣饭</t>
+  </si>
+  <si>
+    <t>鹌鹑蛋烧肉</t>
+  </si>
+  <si>
+    <t>肉末臭豆腐</t>
+  </si>
+  <si>
+    <t>黄瓜凉皮</t>
+  </si>
+  <si>
+    <t>虎皮凤爪</t>
+  </si>
+  <si>
+    <t>青椒土豆炒肉丝</t>
+  </si>
+  <si>
+    <t>娃娃菜年糕片</t>
+  </si>
+  <si>
+    <t>菜秧蛋汤</t>
+  </si>
+  <si>
+    <t>紫菜蛋汤</t>
+  </si>
+  <si>
+    <t>土豆烧鸭块</t>
+  </si>
+  <si>
+    <t>肉末烧花菜干</t>
+  </si>
+  <si>
+    <t>枸杞百合蒸南瓜</t>
+  </si>
+  <si>
+    <t>香芋乳香肉</t>
+  </si>
+  <si>
+    <t>蒜苗炒牛肚</t>
+  </si>
+  <si>
+    <t>菜秧香菇</t>
+  </si>
+  <si>
+    <t>榨菜肉丝汤</t>
+  </si>
+  <si>
+    <t>水煮牛杂</t>
+  </si>
+  <si>
+    <t>青椒榨菜香干肉丝</t>
+  </si>
+  <si>
+    <t>酸辣土豆丝</t>
+  </si>
+  <si>
+    <t>酱龙骨</t>
+  </si>
+  <si>
+    <t>文蛤蒸鸡蛋</t>
+  </si>
+  <si>
+    <t>黄瓜拌凉皮</t>
+  </si>
+  <si>
+    <t>扁尖老鸭汤</t>
+  </si>
+  <si>
+    <t>洋葱炒牛柳</t>
+  </si>
+  <si>
+    <t>杏鲍菇炒松阪肉</t>
+  </si>
+  <si>
+    <t>咖喱土豆块</t>
+  </si>
+  <si>
+    <t>糖醋小排</t>
+  </si>
+  <si>
+    <t>玉米粒花生炒鸡丁</t>
+  </si>
+  <si>
+    <t>红椒海带丝</t>
+  </si>
+  <si>
+    <t>烤鸭豆腐羹</t>
+  </si>
+  <si>
+    <t>红烧鳕鱼</t>
+  </si>
+  <si>
+    <t>洋葱炒猪肝</t>
+  </si>
+  <si>
+    <t>香芹小豆芽</t>
+  </si>
+  <si>
+    <t>香炸德国咸猪肉</t>
+  </si>
+  <si>
+    <t>茶树菇鱿鱼须</t>
+  </si>
+  <si>
+    <t>豉油芥菜</t>
+  </si>
+  <si>
+    <t>冬瓜海带龙骨汤</t>
+  </si>
+  <si>
+    <t>毛豆米鳝段红烧肉</t>
+  </si>
+  <si>
+    <t>洋葱炒肥肠</t>
   </si>
   <si>
     <t>蒜泥苋菜</t>
-    <rPh sb="0" eb="1">
-      <t>suan ni</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian cai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜排骨汤</t>
-    <rPh sb="0" eb="1">
-      <t>luo bo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pai gu tang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦仁饭</t>
-    <rPh sb="0" eb="1">
-      <t>mai ren fan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦片粥</t>
-    <rPh sb="0" eb="1">
-      <t>mai pian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山芋</t>
-    <rPh sb="0" eb="1">
-      <t>shan yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韭菜豆芽</t>
-    <rPh sb="0" eb="1">
-      <t>jiu cai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dou ya</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三鲜炒面</t>
-    <rPh sb="0" eb="1">
-      <t>san xian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chao mian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸菜米线</t>
-    <rPh sb="0" eb="1">
-      <t>suan cai mi xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬州炒饭</t>
-    <rPh sb="0" eb="1">
-      <t>yang zhou chao fan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧萝卜肉圆</t>
-  </si>
-  <si>
-    <t>可乐鸡翅</t>
-  </si>
-  <si>
-    <t>洋葱炒鸡蛋</t>
-  </si>
-  <si>
-    <t>干煸四季豆</t>
-  </si>
-  <si>
-    <t>三丝银芽</t>
-  </si>
-  <si>
-    <t>糖醋包菜</t>
-  </si>
-  <si>
-    <t>丝瓜蛋汤</t>
-  </si>
-  <si>
-    <t>血米饭</t>
+  </si>
+  <si>
+    <t>干锅牛蛙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西芹炒培根 </t>
+  </si>
+  <si>
+    <t>大盘鸡</t>
+  </si>
+  <si>
+    <t>素鸡烧肉</t>
+  </si>
+  <si>
+    <t>小葱蒸蛋</t>
+  </si>
+  <si>
+    <t>三鲜皮肚</t>
+  </si>
+  <si>
+    <t>海带冬瓜</t>
+  </si>
+  <si>
+    <t>娃娃菜烧豆腐</t>
+  </si>
+  <si>
+    <t>夫妻肺片</t>
+  </si>
+  <si>
+    <t>清汤狮子头</t>
+  </si>
+  <si>
+    <t>笋瓜胡萝卜肉片</t>
+  </si>
+  <si>
+    <t>蚂蚁上树</t>
+  </si>
+  <si>
+    <t>虎皮青椒</t>
+  </si>
+  <si>
+    <t>梅干菜扣肉</t>
+  </si>
+  <si>
+    <t>豇豆炒肉丝</t>
+  </si>
+  <si>
+    <t>咸鸭蛋</t>
+  </si>
+  <si>
+    <t>香菇青菜</t>
+  </si>
+  <si>
+    <t>雪菜烧青鱼</t>
+  </si>
+  <si>
+    <t>香酥翅根</t>
+  </si>
+  <si>
+    <t>包菜粉丝炒蛋</t>
+  </si>
+  <si>
+    <t>西芹鸭肫</t>
+  </si>
+  <si>
+    <t>蒜泥黄瓜</t>
+  </si>
+  <si>
+    <t>平菇烧豆腐</t>
+  </si>
+  <si>
+    <t>水煮肉片</t>
+  </si>
+  <si>
+    <t>萝卜烧猪爪</t>
+  </si>
+  <si>
+    <t>宫保鸡丁</t>
+  </si>
+  <si>
+    <t>西芹炒肚丝</t>
+  </si>
+  <si>
+    <t>蒜泥茄子</t>
+  </si>
+  <si>
+    <t>毛血旺</t>
+  </si>
+  <si>
+    <t>珍珠丸子</t>
+  </si>
+  <si>
+    <t>秀珍菇炒蛋</t>
+  </si>
+  <si>
+    <t>洋葱千张肉丝</t>
+  </si>
+  <si>
+    <t>广东菜心</t>
+  </si>
+  <si>
+    <t>青椒土豆丝</t>
+  </si>
+  <si>
+    <t>酸菜鱼</t>
+  </si>
+  <si>
+    <t>清蒸腊鸡腿</t>
+  </si>
+  <si>
+    <t>黄瓜炒肉片</t>
+  </si>
+  <si>
+    <t>木须肉</t>
+  </si>
+  <si>
+    <t>西红柿瓠子</t>
+  </si>
+  <si>
+    <t>烤鸭</t>
+  </si>
+  <si>
+    <t>千张结烧肉</t>
+  </si>
+  <si>
+    <t>雪菜肉末烧豆腐</t>
+  </si>
+  <si>
+    <t>红椒洋葱炒肚片</t>
+  </si>
+  <si>
+    <t>山药老鸡汤</t>
+  </si>
+  <si>
+    <t>信丰鸡块</t>
+  </si>
+  <si>
+    <t>腌菜烧小肉圆</t>
+  </si>
+  <si>
+    <t>豇豆肉丝</t>
+  </si>
+  <si>
+    <t>西红柿炒蛋</t>
+  </si>
+  <si>
+    <t>小白菜木耳</t>
+  </si>
+  <si>
+    <t>红烧茄子</t>
+  </si>
+  <si>
+    <t>鱼头豆腐汤</t>
+  </si>
+  <si>
+    <t>香辣虾</t>
+  </si>
+  <si>
+    <t>千张卷肉</t>
+  </si>
+  <si>
+    <t>虾皮蒸鸡蛋</t>
+  </si>
+  <si>
+    <t>干锅包菜</t>
+  </si>
+  <si>
+    <t>香芹炒豆芽</t>
+  </si>
+  <si>
+    <t>菊叶蛋汤</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,9 +478,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -327,7 +514,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -345,6 +534,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -612,127 +804,593 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="6" max="6" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
+      <c r="G22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\recipeAnalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bellazx/Documents/develop/recipeAnalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC709DCA-0868-4A9B-BF08-FA76BBDCDFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F90FCB1-D505-F843-B018-33F64D357FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2520" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="2520" windowWidth="21600" windowHeight="11380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="breakfast" sheetId="1" r:id="rId1"/>
+    <sheet name="lunch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="189">
   <si>
     <t>红烧萝卜肉圆</t>
   </si>
@@ -436,6 +437,165 @@
   </si>
   <si>
     <t>菊叶蛋汤</t>
+  </si>
+  <si>
+    <t>肉包</t>
+  </si>
+  <si>
+    <t>茶叶蛋</t>
+  </si>
+  <si>
+    <t>白粥</t>
+  </si>
+  <si>
+    <t>玉米棒</t>
+  </si>
+  <si>
+    <t>扬州炒饭</t>
+  </si>
+  <si>
+    <t>葱油饼</t>
+  </si>
+  <si>
+    <t>白鸡蛋</t>
+  </si>
+  <si>
+    <t>小米粥</t>
+  </si>
+  <si>
+    <t>娃娃菜</t>
+  </si>
+  <si>
+    <t>小排面</t>
+  </si>
+  <si>
+    <t>山芋</t>
+  </si>
+  <si>
+    <t>炒面</t>
+  </si>
+  <si>
+    <t>烧麦</t>
+  </si>
+  <si>
+    <t>绿豆粥</t>
+  </si>
+  <si>
+    <t>韭菜豆芽</t>
+  </si>
+  <si>
+    <t>酸菜米线</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>蛋糕</t>
+  </si>
+  <si>
+    <t>麻团</t>
+  </si>
+  <si>
+    <t>咸菜蛋粥</t>
+  </si>
+  <si>
+    <t>小白菜</t>
+  </si>
+  <si>
+    <t>牛肉面</t>
+  </si>
+  <si>
+    <t>炒意面</t>
+  </si>
+  <si>
+    <t>烧饼</t>
+  </si>
+  <si>
+    <t>南瓜粥</t>
+  </si>
+  <si>
+    <t>油麦菜</t>
+  </si>
+  <si>
+    <t>鸭血粉丝汤</t>
+  </si>
+  <si>
+    <t>辣子鸡面</t>
+  </si>
+  <si>
+    <t>豆角馅饼</t>
+  </si>
+  <si>
+    <t>麦片粥</t>
+  </si>
+  <si>
+    <t>菜秧</t>
+  </si>
+  <si>
+    <t>面包</t>
+  </si>
+  <si>
+    <t>红豆卷</t>
+  </si>
+  <si>
+    <t>素鸡面</t>
+  </si>
+  <si>
+    <t>菜肉包</t>
+  </si>
+  <si>
+    <t>三鲜炒面</t>
+  </si>
+  <si>
+    <t>蔬菜包</t>
+  </si>
+  <si>
+    <t>吐司</t>
+  </si>
+  <si>
+    <t>黄金大饼</t>
+  </si>
+  <si>
+    <t>八宝粥</t>
+  </si>
+  <si>
+    <t>牛肉粉丝包</t>
+  </si>
+  <si>
+    <t>肉松卷</t>
+  </si>
+  <si>
+    <t>生菜</t>
+  </si>
+  <si>
+    <t>青椒鸡丝面</t>
+  </si>
+  <si>
+    <t>烤肠卷</t>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+  </si>
+  <si>
+    <t>椰蓉卷</t>
+  </si>
+  <si>
+    <t>豆沙包</t>
+  </si>
+  <si>
+    <t>菠菜</t>
+  </si>
+  <si>
+    <t>雪菜肉丝面</t>
+  </si>
+  <si>
+    <t>炒河粉</t>
+  </si>
+  <si>
+    <t>发糕</t>
+  </si>
+  <si>
+    <t>西兰花</t>
   </si>
 </sst>
 </file>
@@ -477,11 +637,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -805,592 +965,1196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" ht="19">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="19">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="19">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="19">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="19">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="19">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25126C3E-A81F-DC49-8F92-1D22E33E564A}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19">
+      <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19">
+      <c r="A19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19">
+      <c r="A22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bellazx/Documents/develop/recipeAnalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F90FCB1-D505-F843-B018-33F64D357FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D098F-3385-944B-B58C-FC4220EC6F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="2520" windowWidth="21600" windowHeight="11380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="2100" windowWidth="19780" windowHeight="14120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="breakfast" sheetId="1" r:id="rId1"/>
     <sheet name="lunch" sheetId="2" r:id="rId2"/>
+    <sheet name="dinner" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="190">
   <si>
     <t>红烧萝卜肉圆</t>
   </si>
@@ -596,13 +597,16 @@
   </si>
   <si>
     <t>西兰花</t>
+  </si>
+  <si>
+    <t>西蓝花</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,6 +647,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -672,9 +683,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,7 +982,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1494,65 +1508,197 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="19">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="19">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="19">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="19">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+    <row r="17" spans="1:10" ht="19">
+      <c r="A17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19">
+      <c r="A18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19">
+      <c r="A19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19">
+      <c r="A20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19">
+      <c r="A21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19">
+      <c r="A22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25126C3E-A81F-DC49-8F92-1D22E33E564A}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2157,4 +2303,468 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1477E3-1BAB-AA4E-905E-BA4A4C91EB8B}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21">
+      <c r="A11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21">
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21">
+      <c r="A13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21">
+      <c r="A16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21">
+      <c r="A17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21">
+      <c r="A18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21">
+      <c r="A19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21">
+      <c r="A20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21">
+      <c r="A21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21">
+      <c r="A22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>